--- a/Mat_Price_Test_Test/3200234/features.xlsx
+++ b/Mat_Price_Test_Test/3200234/features.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,81 @@
           <t>Price_Material_var</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EoD_Bestand_noSiBe_log1p</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DeficitPos_log1p</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_100_log1p</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_100_log1p</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_66_log1p</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_66_log1p</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_50_log1p</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_50_log1p</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMean_25_log1p</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DemandMax_25_log1p</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_7Tage</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_28Tage</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_wbzTage</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Lag_EoD_Bestand_noSiBe_mean_2xwbzTage</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>L_WBZ_BlockMinAbs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,7 +570,54 @@
       <c r="F2" t="n">
         <v>42</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.949688335052584</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R2" t="n">
+        <v>719.8571428571429</v>
+      </c>
+      <c r="S2" t="n">
+        <v>803.6785714285714</v>
+      </c>
+      <c r="T2" t="n">
+        <v>746.4285714285714</v>
+      </c>
+      <c r="U2" t="n">
+        <v>547.2142857142857</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,7 +640,54 @@
       <c r="F3" t="n">
         <v>42</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.949688335052584</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R3" t="n">
+        <v>703.1428571428571</v>
+      </c>
+      <c r="S3" t="n">
+        <v>797.1785714285714</v>
+      </c>
+      <c r="T3" t="n">
+        <v>753.6904761904761</v>
+      </c>
+      <c r="U3" t="n">
+        <v>550.8452380952381</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -541,7 +710,54 @@
       <c r="F4" t="n">
         <v>42</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.949688335052584</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R4" t="n">
+        <v>686.4285714285714</v>
+      </c>
+      <c r="S4" t="n">
+        <v>790.6785714285714</v>
+      </c>
+      <c r="T4" t="n">
+        <v>760.952380952381</v>
+      </c>
+      <c r="U4" t="n">
+        <v>554.4761904761905</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +780,54 @@
       <c r="F5" t="n">
         <v>42</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.541601993464546</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R5" t="n">
+        <v>669.7142857142857</v>
+      </c>
+      <c r="S5" t="n">
+        <v>784.1785714285714</v>
+      </c>
+      <c r="T5" t="n">
+        <v>768.2142857142857</v>
+      </c>
+      <c r="U5" t="n">
+        <v>558.1071428571429</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -587,7 +850,54 @@
       <c r="F6" t="n">
         <v>42</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.541601993464546</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R6" t="n">
+        <v>653</v>
+      </c>
+      <c r="S6" t="n">
+        <v>777.6785714285714</v>
+      </c>
+      <c r="T6" t="n">
+        <v>775.4761904761905</v>
+      </c>
+      <c r="U6" t="n">
+        <v>561.7380952380952</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -610,7 +920,54 @@
       <c r="F7" t="n">
         <v>42</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.541601993464546</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R7" t="n">
+        <v>653</v>
+      </c>
+      <c r="S7" t="n">
+        <v>771.1785714285714</v>
+      </c>
+      <c r="T7" t="n">
+        <v>782.7380952380952</v>
+      </c>
+      <c r="U7" t="n">
+        <v>565.3690476190476</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -633,7 +990,54 @@
       <c r="F8" t="n">
         <v>42</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.541601993464546</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R8" t="n">
+        <v>653</v>
+      </c>
+      <c r="S8" t="n">
+        <v>764.6785714285714</v>
+      </c>
+      <c r="T8" t="n">
+        <v>790</v>
+      </c>
+      <c r="U8" t="n">
+        <v>569</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,7 +1060,54 @@
       <c r="F9" t="n">
         <v>42</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.268683541318364</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.541601993464546</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="R9" t="n">
+        <v>653</v>
+      </c>
+      <c r="S9" t="n">
+        <v>758.1785714285714</v>
+      </c>
+      <c r="T9" t="n">
+        <v>785.3571428571429</v>
+      </c>
+      <c r="U9" t="n">
+        <v>572.6309523809524</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -679,7 +1130,54 @@
       <c r="F10" t="n">
         <v>42</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.263745259677782</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>653</v>
+      </c>
+      <c r="S10" t="n">
+        <v>751.6785714285714</v>
+      </c>
+      <c r="T10" t="n">
+        <v>780.7142857142857</v>
+      </c>
+      <c r="U10" t="n">
+        <v>576.2619047619048</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -702,7 +1200,54 @@
       <c r="F11" t="n">
         <v>42</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.263745259677782</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>653</v>
+      </c>
+      <c r="S11" t="n">
+        <v>745.1785714285714</v>
+      </c>
+      <c r="T11" t="n">
+        <v>776.0714285714286</v>
+      </c>
+      <c r="U11" t="n">
+        <v>579.8928571428571</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -725,7 +1270,54 @@
       <c r="F12" t="n">
         <v>42</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.263745259677782</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>653</v>
+      </c>
+      <c r="S12" t="n">
+        <v>738.6785714285714</v>
+      </c>
+      <c r="T12" t="n">
+        <v>771.4285714285714</v>
+      </c>
+      <c r="U12" t="n">
+        <v>583.5238095238095</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -748,7 +1340,54 @@
       <c r="F13" t="n">
         <v>42</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.263745259677782</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>653</v>
+      </c>
+      <c r="S13" t="n">
+        <v>732.1785714285714</v>
+      </c>
+      <c r="T13" t="n">
+        <v>766.7857142857143</v>
+      </c>
+      <c r="U13" t="n">
+        <v>587.1547619047619</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -771,7 +1410,54 @@
       <c r="F14" t="n">
         <v>42</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.730390522851763</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.263745259677782</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>653</v>
+      </c>
+      <c r="S14" t="n">
+        <v>725.6785714285714</v>
+      </c>
+      <c r="T14" t="n">
+        <v>762.1428571428571</v>
+      </c>
+      <c r="U14" t="n">
+        <v>590.7857142857143</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -794,7 +1480,54 @@
       <c r="F15" t="n">
         <v>42</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.678430783921052</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.263745259677782</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>653</v>
+      </c>
+      <c r="S15" t="n">
+        <v>719.1785714285714</v>
+      </c>
+      <c r="T15" t="n">
+        <v>757.7857142857143</v>
+      </c>
+      <c r="U15" t="n">
+        <v>594.4166666666666</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -817,7 +1550,54 @@
       <c r="F16" t="n">
         <v>42</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.014903020542265</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.882731247433782</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>653</v>
+      </c>
+      <c r="S16" t="n">
+        <v>712.6785714285714</v>
+      </c>
+      <c r="T16" t="n">
+        <v>753.452380952381</v>
+      </c>
+      <c r="U16" t="n">
+        <v>598.047619047619</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -840,7 +1620,54 @@
       <c r="F17" t="n">
         <v>42</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.010129741789607</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.882731247433782</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>653</v>
+      </c>
+      <c r="S17" t="n">
+        <v>706.2142857142857</v>
+      </c>
+      <c r="T17" t="n">
+        <v>749.1190476190476</v>
+      </c>
+      <c r="U17" t="n">
+        <v>601.6785714285714</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -863,7 +1690,54 @@
       <c r="F18" t="n">
         <v>42</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.010129741789607</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.882731247433782</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>653</v>
+      </c>
+      <c r="S18" t="n">
+        <v>699.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>744.7857142857143</v>
+      </c>
+      <c r="U18" t="n">
+        <v>605.3095238095239</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -886,7 +1760,54 @@
       <c r="F19" t="n">
         <v>42</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.010129741789607</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.882731247433782</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>653</v>
+      </c>
+      <c r="S19" t="n">
+        <v>693.2857142857143</v>
+      </c>
+      <c r="T19" t="n">
+        <v>740.452380952381</v>
+      </c>
+      <c r="U19" t="n">
+        <v>608.9404761904761</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -909,7 +1830,54 @@
       <c r="F20" t="n">
         <v>42</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.010129741789607</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.882731247433782</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>653</v>
+      </c>
+      <c r="S20" t="n">
+        <v>686.8214285714286</v>
+      </c>
+      <c r="T20" t="n">
+        <v>736.1190476190476</v>
+      </c>
+      <c r="U20" t="n">
+        <v>612.5714285714286</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -932,7 +1900,54 @@
       <c r="F21" t="n">
         <v>42</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.010129741789607</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>653</v>
+      </c>
+      <c r="S21" t="n">
+        <v>680.3571428571429</v>
+      </c>
+      <c r="T21" t="n">
+        <v>731.7857142857143</v>
+      </c>
+      <c r="U21" t="n">
+        <v>616.202380952381</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -955,7 +1970,54 @@
       <c r="F22" t="n">
         <v>42</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.010129741789607</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>653</v>
+      </c>
+      <c r="S22" t="n">
+        <v>673.8928571428571</v>
+      </c>
+      <c r="T22" t="n">
+        <v>727.452380952381</v>
+      </c>
+      <c r="U22" t="n">
+        <v>619.8333333333334</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -978,7 +2040,54 @@
       <c r="F23" t="n">
         <v>42</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.644529232245371</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>653</v>
+      </c>
+      <c r="S23" t="n">
+        <v>669.7142857142857</v>
+      </c>
+      <c r="T23" t="n">
+        <v>723.1190476190476</v>
+      </c>
+      <c r="U23" t="n">
+        <v>623.4642857142857</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1001,7 +2110,54 @@
       <c r="F24" t="n">
         <v>42</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.644529232245371</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>653</v>
+      </c>
+      <c r="S24" t="n">
+        <v>665.5357142857143</v>
+      </c>
+      <c r="T24" t="n">
+        <v>718.7857142857143</v>
+      </c>
+      <c r="U24" t="n">
+        <v>627.0952380952381</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1024,7 +2180,54 @@
       <c r="F25" t="n">
         <v>42</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.644529232245371</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>653</v>
+      </c>
+      <c r="S25" t="n">
+        <v>661.3571428571429</v>
+      </c>
+      <c r="T25" t="n">
+        <v>714.452380952381</v>
+      </c>
+      <c r="U25" t="n">
+        <v>630.7261904761905</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1047,7 +2250,54 @@
       <c r="F26" t="n">
         <v>42</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.644529232245371</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>653</v>
+      </c>
+      <c r="S26" t="n">
+        <v>657.1785714285714</v>
+      </c>
+      <c r="T26" t="n">
+        <v>710.1190476190476</v>
+      </c>
+      <c r="U26" t="n">
+        <v>634.3571428571429</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1070,7 +2320,54 @@
       <c r="F27" t="n">
         <v>42</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.644529232245371</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>653</v>
+      </c>
+      <c r="S27" t="n">
+        <v>653</v>
+      </c>
+      <c r="T27" t="n">
+        <v>705.7857142857143</v>
+      </c>
+      <c r="U27" t="n">
+        <v>637.9880952380952</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1093,7 +2390,54 @@
       <c r="F28" t="n">
         <v>42</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>653</v>
+      </c>
+      <c r="S28" t="n">
+        <v>653</v>
+      </c>
+      <c r="T28" t="n">
+        <v>701.452380952381</v>
+      </c>
+      <c r="U28" t="n">
+        <v>641.6190476190476</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1116,7 +2460,54 @@
       <c r="F29" t="n">
         <v>42</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>653</v>
+      </c>
+      <c r="S29" t="n">
+        <v>653</v>
+      </c>
+      <c r="T29" t="n">
+        <v>697.1190476190476</v>
+      </c>
+      <c r="U29" t="n">
+        <v>645.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1139,7 +2530,54 @@
       <c r="F30" t="n">
         <v>42</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.673976433571672</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>653</v>
+      </c>
+      <c r="S30" t="n">
+        <v>653</v>
+      </c>
+      <c r="T30" t="n">
+        <v>692.7857142857143</v>
+      </c>
+      <c r="U30" t="n">
+        <v>648.8809523809524</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1162,7 +2600,54 @@
       <c r="F31" t="n">
         <v>42</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.66950215317675</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>653</v>
+      </c>
+      <c r="S31" t="n">
+        <v>653</v>
+      </c>
+      <c r="T31" t="n">
+        <v>688.4761904761905</v>
+      </c>
+      <c r="U31" t="n">
+        <v>652.5119047619048</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1185,7 +2670,54 @@
       <c r="F32" t="n">
         <v>42</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.66950215317675</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>653</v>
+      </c>
+      <c r="S32" t="n">
+        <v>653</v>
+      </c>
+      <c r="T32" t="n">
+        <v>684.1666666666666</v>
+      </c>
+      <c r="U32" t="n">
+        <v>656.1428571428571</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1208,7 +2740,54 @@
       <c r="F33" t="n">
         <v>42</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.66950215317675</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>653</v>
+      </c>
+      <c r="S33" t="n">
+        <v>653</v>
+      </c>
+      <c r="T33" t="n">
+        <v>679.8571428571429</v>
+      </c>
+      <c r="U33" t="n">
+        <v>659.7738095238095</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1231,7 +2810,54 @@
       <c r="F34" t="n">
         <v>42</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.66950215317675</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>653</v>
+      </c>
+      <c r="S34" t="n">
+        <v>653</v>
+      </c>
+      <c r="T34" t="n">
+        <v>675.547619047619</v>
+      </c>
+      <c r="U34" t="n">
+        <v>663.4047619047619</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1254,7 +2880,54 @@
       <c r="F35" t="n">
         <v>42</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.66950215317675</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>653</v>
+      </c>
+      <c r="S35" t="n">
+        <v>653</v>
+      </c>
+      <c r="T35" t="n">
+        <v>671.2380952380952</v>
+      </c>
+      <c r="U35" t="n">
+        <v>667.0357142857143</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1277,7 +2950,54 @@
       <c r="F36" t="n">
         <v>42</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.483107351457199</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.66950215317675</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>653</v>
+      </c>
+      <c r="S36" t="n">
+        <v>653</v>
+      </c>
+      <c r="T36" t="n">
+        <v>666.9285714285714</v>
+      </c>
+      <c r="U36" t="n">
+        <v>670.6666666666666</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1300,7 +3020,54 @@
       <c r="F37" t="n">
         <v>42</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6.436150368369428</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.331234583936863</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>653</v>
+      </c>
+      <c r="S37" t="n">
+        <v>653</v>
+      </c>
+      <c r="T37" t="n">
+        <v>664.1428571428571</v>
+      </c>
+      <c r="U37" t="n">
+        <v>674.297619047619</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1323,7 +3090,54 @@
       <c r="F38" t="n">
         <v>42</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6.436150368369428</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.504077396776274</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.7282385003712154</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8873031950009028</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.386294361119891</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="R38" t="n">
+        <v>648.7142857142857</v>
+      </c>
+      <c r="S38" t="n">
+        <v>651.9285714285714</v>
+      </c>
+      <c r="T38" t="n">
+        <v>660.6428571428571</v>
+      </c>
+      <c r="U38" t="n">
+        <v>677.5714285714286</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1346,7 +3160,54 @@
       <c r="F39" t="n">
         <v>42</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6.436150368369428</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.504077396776274</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.7282385003712154</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8873031950009028</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.386294361119891</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="R39" t="n">
+        <v>644.4285714285714</v>
+      </c>
+      <c r="S39" t="n">
+        <v>650.8571428571429</v>
+      </c>
+      <c r="T39" t="n">
+        <v>657.1428571428571</v>
+      </c>
+      <c r="U39" t="n">
+        <v>680.8452380952381</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1369,7 +3230,54 @@
       <c r="F40" t="n">
         <v>42</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.335054251498059</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.504077396776274</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7282385003712154</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8873031950009028</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.386294361119891</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="R40" t="n">
+        <v>640.1428571428571</v>
+      </c>
+      <c r="S40" t="n">
+        <v>649.7857142857143</v>
+      </c>
+      <c r="T40" t="n">
+        <v>653.6428571428571</v>
+      </c>
+      <c r="U40" t="n">
+        <v>684.1190476190476</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1392,7 +3300,54 @@
       <c r="F41" t="n">
         <v>42</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>0.381111</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6.280395838960195</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.779783278181339</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.438480114290461</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.110873864173311</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.665007763588911</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.110873864173311</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4.110873864173311</v>
+      </c>
+      <c r="R41" t="n">
+        <v>627.2857142857143</v>
+      </c>
+      <c r="S41" t="n">
+        <v>646.5714285714286</v>
+      </c>
+      <c r="T41" t="n">
+        <v>648.7142857142857</v>
+      </c>
+      <c r="U41" t="n">
+        <v>686.6785714285714</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
